--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\English\English-Speaking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\English-Speaking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205F9C2C-FF49-4702-9A51-068C4FF5C876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8352B13-51B5-4339-B04D-2106EB719BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Question</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,95 @@
   <si>
     <t>What is your favorite restaurant？</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Describe a friend or a person who encouraged you to achieve a goal.</t>
+  </si>
+  <si>
+    <t>Describe a water sport you would like to try in the future.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a singer that you like. </t>
+  </si>
+  <si>
+    <t>Describe a quiz program or game show on TV you like.</t>
+  </si>
+  <si>
+    <t>Describe a time that you got up early in the morning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Describe a time that you invited family or friends to have dinner at home or in a restaurant.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Describe a piece of information that you think is not correct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a person who has interesting ideas or opinions. </t>
+  </si>
+  <si>
+    <t>Describe a historical building you have visited.</t>
+  </si>
+  <si>
+    <t>Describe a prize you would like to win/ Describe an award you would like to receive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a person you know who speaks a foreign language well. </t>
+  </si>
+  <si>
+    <t>Describe a time when you used the internet to solve a problem.</t>
+  </si>
+  <si>
+    <t>Describe a time you received a call from someone you don't know.</t>
+  </si>
+  <si>
+    <t>Describe a famous person (still living), not from your country, who you would like to meet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a person who helps others in his spare time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a park or garden you visited and liked. </t>
+  </si>
+  <si>
+    <t>Describe a time the vehicle you were travelling in broke down.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Describe something special you brought back home from a holiday.</t>
+  </si>
+  <si>
+    <t>Describe a piece of clothing you often wear.</t>
+  </si>
+  <si>
+    <t>Describe a time you gave advice to others.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Describe something a child did that made you laugh.</t>
+  </si>
+  <si>
+    <t>Describe a practical skill you learnt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe an impressive advertisement you remember well. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a time you visited a place with friends. </t>
+  </si>
+  <si>
+    <t>Is it important for teenagers to have goals?</t>
+  </si>
+  <si>
+    <t>What do you think would encourage young children to learn more?</t>
+  </si>
+  <si>
+    <t>How should we encourage children?</t>
+  </si>
+  <si>
+    <t>How could we make children interested in things that they don’t have interest?</t>
   </si>
 </sst>
 </file>
@@ -366,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -402,6 +491,146 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\English-Speaking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8352B13-51B5-4339-B04D-2106EB719BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7762841-E8F9-453D-A9AB-1CDAD8E8607D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
   <si>
     <t>Question</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,13 +131,242 @@
   </si>
   <si>
     <t>How could we make children interested in things that they don’t have interest?</t>
+  </si>
+  <si>
+    <t>What kind of art do you enjoy?</t>
+  </si>
+  <si>
+    <t>What are the tradition art forms in your country?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What makes a good painting?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you think children should study art at school?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How can children benefit from learning art?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How has art changed in the last few decades in your country？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can clothing tell you much about a person?</t>
+  </si>
+  <si>
+    <t>Why do some companies ask their staff to wear uniforms?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are the advantages and disadvantages of having uniforms at work?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When do people wear traditional clothing in your country?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How have clothes fashions change in your country over the last few decades?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is the difference between clothes that young people and old people like to wear?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> What role should the teacher have in the classroom?</t>
+  </si>
+  <si>
+    <t> Do you think computers will one day replace teachers in the classroom?</t>
+  </si>
+  <si>
+    <t> How has teaching changed in your country in the last few decades?</t>
+  </si>
+  <si>
+    <t> What is the difference between the way children learn and the way adults learn?</t>
+  </si>
+  <si>
+    <t> How can a teacher make lessons for children more interesting?</t>
+  </si>
+  <si>
+    <t> Is family important in your country?</t>
+  </si>
+  <si>
+    <t> How has the size of the family changed in the last few decades in your country?</t>
+  </si>
+  <si>
+    <t> How do you think the family will change in the future?</t>
+  </si>
+  <si>
+    <t> What role do grandparents play in the family in your country?</t>
+  </si>
+  <si>
+    <t> Do you think diet is important?</t>
+  </si>
+  <si>
+    <t> What is a balanced diet?</t>
+  </si>
+  <si>
+    <t> What is the typical diet of people in your country?</t>
+  </si>
+  <si>
+    <t> Do many people eat in restaurants in your country?</t>
+  </si>
+  <si>
+    <t> Why do some people enjoy eating out?</t>
+  </si>
+  <si>
+    <t> What’s the difference between restaurant food and home cooked food?</t>
+  </si>
+  <si>
+    <t> How can people improve their health?</t>
+  </si>
+  <si>
+    <t> Do elderly people do much exercise in your country?</t>
+  </si>
+  <si>
+    <t> Do you think all illness can be prevented?</t>
+  </si>
+  <si>
+    <t> Do you think there will be less illness in the future?</t>
+  </si>
+  <si>
+    <t> Do you think health care should be free?</t>
+  </si>
+  <si>
+    <t> What makes a good doctor?</t>
+  </si>
+  <si>
+    <t> Do most people have a computer at home in your country?</t>
+  </si>
+  <si>
+    <t> Do you think all information on the internet is true?</t>
+  </si>
+  <si>
+    <t> How can people find reliable information on the internet?</t>
+  </si>
+  <si>
+    <t> How has the internet changed the way we live?</t>
+  </si>
+  <si>
+    <t> How has the internet changed the way we work?</t>
+  </si>
+  <si>
+    <t> Do you think the internet is safe for children to use unsupervised?</t>
+  </si>
+  <si>
+    <t> Do you believe everything you read in the newspapers?</t>
+  </si>
+  <si>
+    <t> How do most people get their news in your country?</t>
+  </si>
+  <si>
+    <t> How do you think people will get their news in the future?</t>
+  </si>
+  <si>
+    <t> How has TV changed our lives?</t>
+  </si>
+  <si>
+    <t> Do you think TV influences the way we think?</t>
+  </si>
+  <si>
+    <t> Should children be allowed to watch a lot of TV?</t>
+  </si>
+  <si>
+    <t> Are all people on TV famous?</t>
+  </si>
+  <si>
+    <t> What are the main environmental problems in your country?</t>
+  </si>
+  <si>
+    <t> Why should people be concerned about the environment?</t>
+  </si>
+  <si>
+    <t> How can people protect the environment?</t>
+  </si>
+  <si>
+    <t> Do you think money should be spent on protecting animals?</t>
+  </si>
+  <si>
+    <t> Do you think more should be done to protect natural beauty spots in your country?</t>
+  </si>
+  <si>
+    <t> What social problems are there in your country?</t>
+  </si>
+  <si>
+    <t> What can be done to alleviate poverty?</t>
+  </si>
+  <si>
+    <t> Are there many charities in your country?</t>
+  </si>
+  <si>
+    <t> What is the difference between major crime and minor crime?</t>
+  </si>
+  <si>
+    <t> Do you think all criminals should go to prison?</t>
+  </si>
+  <si>
+    <t> Why do so many people move to live in cities?</t>
+  </si>
+  <si>
+    <t> What problems does over-population cause?</t>
+  </si>
+  <si>
+    <t> Why do some people prefer to travel abroad rather than in their own country?</t>
+  </si>
+  <si>
+    <t> Do you think traveling to another country can change the way people think?</t>
+  </si>
+  <si>
+    <t> Do you think it is good for children to experience life in a foreign country?</t>
+  </si>
+  <si>
+    <t> How have holidays changed over the past few decades?</t>
+  </si>
+  <si>
+    <t> Do you think it is safer to travel now than in the past?</t>
+  </si>
+  <si>
+    <t> Do you think job satisfaction is more important than salary when choosing a job?</t>
+  </si>
+  <si>
+    <t> What skills do you think are needed to get a good job these days?</t>
+  </si>
+  <si>
+    <t> Do you think women should be able to do all the same jobs that men do?</t>
+  </si>
+  <si>
+    <t> How has technology changed the way we work?</t>
+  </si>
+  <si>
+    <t> What is the difference between white collar and blue collar jobs?</t>
+  </si>
+  <si>
+    <t> What jobs do you think are most valuable to society?</t>
+  </si>
+  <si>
+    <t> Who do you think should be responsible for the care of the elderly, the family or the government？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> Do you think famous people have a responsibility to act as role models for the younger generation?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> What makes a good student?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +380,13 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,8 +409,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -455,180 +693,551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
